--- a/output/vignettes_ESP.xlsx
+++ b/output/vignettes_ESP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/jciturra_uc_cl/Documents/papers/factorial-cohesion/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_C6901479C3574AFC124848BFC2C51BB201B06CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914DA88A-B510-42FE-8EEA-74C007215ACC}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_C6901479C3574AFC124848BFC2C51BB201B06CF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8CA39AE-F185-4691-8777-4BD6F88EFE41}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,6 +696,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,7 +1022,7 @@
   <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output/vignettes_ESP.xlsx
+++ b/output/vignettes_ESP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
